--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>214.917406289274</v>
+        <v>369.660016</v>
       </c>
       <c r="H2">
-        <v>214.917406289274</v>
+        <v>1108.980048</v>
       </c>
       <c r="I2">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="J2">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>1521.41421707611</v>
+        <v>8737.209343632763</v>
       </c>
       <c r="R2">
-        <v>1521.41421707611</v>
+        <v>78634.88409269488</v>
       </c>
       <c r="S2">
-        <v>0.00236257462435096</v>
+        <v>0.01121429183460182</v>
       </c>
       <c r="T2">
-        <v>0.00236257462435096</v>
+        <v>0.01121429183460182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>214.917406289274</v>
+        <v>369.660016</v>
       </c>
       <c r="H3">
-        <v>214.917406289274</v>
+        <v>1108.980048</v>
       </c>
       <c r="I3">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="J3">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>38881.57498362731</v>
+        <v>67015.06964089427</v>
       </c>
       <c r="R3">
-        <v>38881.57498362731</v>
+        <v>603135.6267680485</v>
       </c>
       <c r="S3">
-        <v>0.06037844354291427</v>
+        <v>0.08601448342505692</v>
       </c>
       <c r="T3">
-        <v>0.06037844354291427</v>
+        <v>0.08601448342505692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>214.917406289274</v>
+        <v>369.660016</v>
       </c>
       <c r="H4">
-        <v>214.917406289274</v>
+        <v>1108.980048</v>
       </c>
       <c r="I4">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="J4">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>21741.51133381388</v>
+        <v>41069.42973518874</v>
       </c>
       <c r="R4">
-        <v>21741.51133381388</v>
+        <v>369624.8676166987</v>
       </c>
       <c r="S4">
-        <v>0.03376197119481622</v>
+        <v>0.05271300622626335</v>
       </c>
       <c r="T4">
-        <v>0.03376197119481622</v>
+        <v>0.05271300622626336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>214.917406289274</v>
+        <v>369.660016</v>
       </c>
       <c r="H5">
-        <v>214.917406289274</v>
+        <v>1108.980048</v>
       </c>
       <c r="I5">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="J5">
-        <v>0.1065302386610313</v>
+        <v>0.1642435133179984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>6457.192710168802</v>
+        <v>11142.67640224863</v>
       </c>
       <c r="R5">
-        <v>6457.192710168802</v>
+        <v>100284.0876202377</v>
       </c>
       <c r="S5">
-        <v>0.01002724929894989</v>
+        <v>0.0143017318320763</v>
       </c>
       <c r="T5">
-        <v>0.01002724929894989</v>
+        <v>0.0143017318320763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>249.875923463529</v>
+        <v>249.925644</v>
       </c>
       <c r="H6">
-        <v>249.875923463529</v>
+        <v>749.776932</v>
       </c>
       <c r="I6">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810293</v>
       </c>
       <c r="J6">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810294</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>1768.887820797268</v>
+        <v>5907.191953295363</v>
       </c>
       <c r="R6">
-        <v>1768.887820797268</v>
+        <v>53164.72757965828</v>
       </c>
       <c r="S6">
-        <v>0.002746871582921477</v>
+        <v>0.007581937422106264</v>
       </c>
       <c r="T6">
-        <v>0.002746871582921477</v>
+        <v>0.007581937422106265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>249.875923463529</v>
+        <v>249.925644</v>
       </c>
       <c r="H7">
-        <v>249.875923463529</v>
+        <v>749.776932</v>
       </c>
       <c r="I7">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810293</v>
       </c>
       <c r="J7">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>45206.06135397607</v>
+        <v>45308.61795370735</v>
       </c>
       <c r="R7">
-        <v>45206.06135397607</v>
+        <v>407777.5615833662</v>
       </c>
       <c r="S7">
-        <v>0.07019961574107836</v>
+        <v>0.05815404488684185</v>
       </c>
       <c r="T7">
-        <v>0.07019961574107836</v>
+        <v>0.05815404488684184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>249.875923463529</v>
+        <v>249.925644</v>
       </c>
       <c r="H8">
-        <v>249.875923463529</v>
+        <v>749.776932</v>
       </c>
       <c r="I8">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810293</v>
       </c>
       <c r="J8">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>25277.99081437481</v>
+        <v>27766.87559111017</v>
       </c>
       <c r="R8">
-        <v>25277.99081437481</v>
+        <v>249901.8803199915</v>
       </c>
       <c r="S8">
-        <v>0.03925370157733383</v>
+        <v>0.03563905063585475</v>
       </c>
       <c r="T8">
-        <v>0.03925370157733383</v>
+        <v>0.03563905063585476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>249.875923463529</v>
+        <v>249.925644</v>
       </c>
       <c r="H9">
-        <v>249.875923463529</v>
+        <v>749.776932</v>
       </c>
       <c r="I9">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810293</v>
       </c>
       <c r="J9">
-        <v>0.1238584729911839</v>
+        <v>0.1110443760810294</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>7507.521234755954</v>
+        <v>7533.518517500664</v>
       </c>
       <c r="R9">
-        <v>7507.521234755954</v>
+        <v>67801.66665750596</v>
       </c>
       <c r="S9">
-        <v>0.01165828408985026</v>
+        <v>0.009669343136226473</v>
       </c>
       <c r="T9">
-        <v>0.01165828408985026</v>
+        <v>0.009669343136226475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1475.66809010633</v>
+        <v>1552.995524333333</v>
       </c>
       <c r="H10">
-        <v>1475.66809010633</v>
+        <v>4658.986573</v>
       </c>
       <c r="I10">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274287</v>
       </c>
       <c r="J10">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274288</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>10446.34983613874</v>
+        <v>36706.28799038158</v>
       </c>
       <c r="R10">
-        <v>10446.34983613874</v>
+        <v>330356.5919134342</v>
       </c>
       <c r="S10">
-        <v>0.01622193401569847</v>
+        <v>0.04711287202807583</v>
       </c>
       <c r="T10">
-        <v>0.01622193401569847</v>
+        <v>0.04711287202807584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1475.66809010633</v>
+        <v>1552.995524333333</v>
       </c>
       <c r="H11">
-        <v>1475.66809010633</v>
+        <v>4658.986573</v>
       </c>
       <c r="I11">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274287</v>
       </c>
       <c r="J11">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274288</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>266969.0672666511</v>
+        <v>281540.0603542565</v>
       </c>
       <c r="R11">
-        <v>266969.0672666511</v>
+        <v>2533860.543188309</v>
       </c>
       <c r="S11">
-        <v>0.4145710857250926</v>
+        <v>0.3613593626716639</v>
       </c>
       <c r="T11">
-        <v>0.4145710857250926</v>
+        <v>0.3613593626716639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1475.66809010633</v>
+        <v>1552.995524333333</v>
       </c>
       <c r="H12">
-        <v>1475.66809010633</v>
+        <v>4658.986573</v>
       </c>
       <c r="I12">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274287</v>
       </c>
       <c r="J12">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274288</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>149281.7871755391</v>
+        <v>172538.6512066548</v>
       </c>
       <c r="R12">
-        <v>149281.7871755391</v>
+        <v>1552847.860859893</v>
       </c>
       <c r="S12">
-        <v>0.2318167914432245</v>
+        <v>0.221455010550944</v>
       </c>
       <c r="T12">
-        <v>0.2318167914432245</v>
+        <v>0.221455010550944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1475.66809010633</v>
+        <v>1552.995524333333</v>
       </c>
       <c r="H13">
-        <v>1475.66809010633</v>
+        <v>4658.986573</v>
       </c>
       <c r="I13">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274287</v>
       </c>
       <c r="J13">
-        <v>0.7314590127330288</v>
+        <v>0.6900109020274288</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>44336.44253661769</v>
+        <v>46812.00517447029</v>
       </c>
       <c r="R13">
-        <v>44336.44253661769</v>
+        <v>421308.0465702325</v>
       </c>
       <c r="S13">
-        <v>0.06884920154901339</v>
+        <v>0.06008365677674497</v>
       </c>
       <c r="T13">
-        <v>0.06884920154901339</v>
+        <v>0.06008365677674498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.96958368080961</v>
+        <v>78.101406</v>
       </c>
       <c r="H14">
-        <v>76.96958368080961</v>
+        <v>234.304218</v>
       </c>
       <c r="I14">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354342</v>
       </c>
       <c r="J14">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354343</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>544.8726602292769</v>
+        <v>1845.989029698186</v>
       </c>
       <c r="R14">
-        <v>544.8726602292769</v>
+        <v>16613.90126728367</v>
       </c>
       <c r="S14">
-        <v>0.0008461221842886817</v>
+        <v>0.002369344591427819</v>
       </c>
       <c r="T14">
-        <v>0.0008461221842886817</v>
+        <v>0.00236934459142782</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.96958368080961</v>
+        <v>78.101406</v>
       </c>
       <c r="H15">
-        <v>76.96958368080961</v>
+        <v>234.304218</v>
       </c>
       <c r="I15">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354342</v>
       </c>
       <c r="J15">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354343</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>13924.87789153695</v>
+        <v>14158.87825461155</v>
       </c>
       <c r="R15">
-        <v>13924.87789153695</v>
+        <v>127429.9042915039</v>
       </c>
       <c r="S15">
-        <v>0.02162367275425896</v>
+        <v>0.01817305578394132</v>
       </c>
       <c r="T15">
-        <v>0.02162367275425896</v>
+        <v>0.01817305578394132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.96958368080961</v>
+        <v>78.101406</v>
       </c>
       <c r="H16">
-        <v>76.96958368080961</v>
+        <v>234.304218</v>
       </c>
       <c r="I16">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354342</v>
       </c>
       <c r="J16">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354343</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>7786.410160295962</v>
+        <v>8677.108876001477</v>
       </c>
       <c r="R16">
-        <v>7786.410160295962</v>
+        <v>78093.97988401329</v>
       </c>
       <c r="S16">
-        <v>0.01209136529225917</v>
+        <v>0.01113715230905016</v>
       </c>
       <c r="T16">
-        <v>0.01209136529225917</v>
+        <v>0.01113715230905017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.96958368080961</v>
+        <v>78.101406</v>
       </c>
       <c r="H17">
-        <v>76.96958368080961</v>
+        <v>234.304218</v>
       </c>
       <c r="I17">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354342</v>
       </c>
       <c r="J17">
-        <v>0.03815227561475597</v>
+        <v>0.03470120857354343</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>2312.550868864901</v>
+        <v>2354.213753046636</v>
       </c>
       <c r="R17">
-        <v>2312.550868864901</v>
+        <v>21187.92377741972</v>
       </c>
       <c r="S17">
-        <v>0.003591115383949157</v>
+        <v>0.003021655889124115</v>
       </c>
       <c r="T17">
-        <v>0.003591115383949157</v>
+        <v>0.003021655889124116</v>
       </c>
     </row>
   </sheetData>
